--- a/participants_preferences.xlsx
+++ b/participants_preferences.xlsx
@@ -5,23 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pascal/PycharmProjects/labor_rotation_algorithms/excelsheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pascal/PycharmProjects/internal-labor-rotation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28ADE6D2-FF2B-DD4D-A0A9-5A15FF752FA3}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1EBEDD-AAD9-CF4A-9028-2E6950822A10}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="18440" windowHeight="19760" activeTab="1" xr2:uid="{DCF1C8F3-97A6-AD46-8D67-C6CB5B41C1F9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="The grid" sheetId="4" r:id="rId4"/>
-    <sheet name="test" sheetId="5" r:id="rId5"/>
+    <sheet name="list_of_participants" sheetId="6" r:id="rId1"/>
+    <sheet name="Workers" sheetId="1" r:id="rId2"/>
+    <sheet name="Managers" sheetId="2" r:id="rId3"/>
+    <sheet name="Grid" sheetId="3" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="result" localSheetId="4">test!$A$1:$C$6</definedName>
-  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,22 +27,8 @@
 </workbook>
 </file>
 
-<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="result" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr sourceFile="/Users/pascal/PycharmProjects/test_1/excelsheets/result.txt" decimal="," thousands="." comma="1">
-      <textFields count="3">
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-</connections>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="29">
   <si>
     <t>Rank</t>
   </si>
@@ -75,18 +57,6 @@
     <t>w5</t>
   </si>
   <si>
-    <t>j1</t>
-  </si>
-  <si>
-    <t>j2</t>
-  </si>
-  <si>
-    <t>Was not proposed to.</t>
-  </si>
-  <si>
-    <t>No match</t>
-  </si>
-  <si>
     <t>j12</t>
   </si>
   <si>
@@ -112,6 +82,39 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>List of workers</t>
+  </si>
+  <si>
+    <t>List of Managers</t>
+  </si>
+  <si>
+    <t>w6</t>
+  </si>
+  <si>
+    <t>w7</t>
+  </si>
+  <si>
+    <t>w8</t>
+  </si>
+  <si>
+    <t>w9</t>
+  </si>
+  <si>
+    <t>w10</t>
+  </si>
+  <si>
+    <t>w11</t>
+  </si>
+  <si>
+    <t>w12</t>
+  </si>
+  <si>
+    <t>w13</t>
+  </si>
+  <si>
+    <t>w14</t>
   </si>
 </sst>
 </file>
@@ -297,10 +300,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="result" connectionId="1" xr16:uid="{00000000-0016-0000-0400-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -599,11 +598,107 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD478F1-64C1-104C-8378-10097C1996F9}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView zoomScale="50" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="2" width="31.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{596F157E-26D9-BE4C-8920-4F34520429A5}">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.33203125" defaultRowHeight="16"/>
@@ -632,19 +727,19 @@
     </row>
     <row r="2" spans="1:15" s="14" customFormat="1" ht="23" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>17</v>
-      </c>
       <c r="E2" s="13" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
@@ -659,19 +754,19 @@
     </row>
     <row r="3" spans="1:15" s="14" customFormat="1" ht="23" customHeight="1">
       <c r="A3" s="13" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
@@ -689,16 +784,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -716,16 +811,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
@@ -743,16 +838,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -771,7 +866,7 @@
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E7" s="10"/>
     </row>
@@ -790,12 +885,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6140E9A8-F7FE-D04B-9D22-29E6F982C507}">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="177" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView zoomScale="177" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.6640625" defaultRowHeight="16"/>
@@ -808,24 +903,24 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="E1" s="16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>4</v>
@@ -937,7 +1032,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D7C2C3-ECF9-554C-BEA6-437A84A51C27}">
   <dimension ref="A1:C111"/>
   <sheetViews>
@@ -1799,806 +1894,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E88EA1-6A21-A442-92A5-251FDC849175}">
-  <dimension ref="A1:C64"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5">
-        <v>2</v>
-      </c>
-      <c r="C6" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5">
-        <v>3</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6">
-        <v>1</v>
-      </c>
-      <c r="C8" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6">
-        <v>2</v>
-      </c>
-      <c r="C9" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6">
-        <v>3</v>
-      </c>
-      <c r="C10" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6">
-        <v>4</v>
-      </c>
-      <c r="C11" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="5">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6">
-        <v>1</v>
-      </c>
-      <c r="C12" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="5">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6">
-        <v>2</v>
-      </c>
-      <c r="C13" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="5">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6">
-        <v>3</v>
-      </c>
-      <c r="C14" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="5">
-        <v>14</v>
-      </c>
-      <c r="B15" s="6">
-        <v>4</v>
-      </c>
-      <c r="C15" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="5">
-        <v>15</v>
-      </c>
-      <c r="B16" s="6">
-        <v>5</v>
-      </c>
-      <c r="C16" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="5">
-        <v>16</v>
-      </c>
-      <c r="B17" s="6">
-        <v>1</v>
-      </c>
-      <c r="C17" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="5">
-        <v>17</v>
-      </c>
-      <c r="B18" s="6">
-        <v>2</v>
-      </c>
-      <c r="C18" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="5">
-        <v>18</v>
-      </c>
-      <c r="B19" s="6">
-        <v>3</v>
-      </c>
-      <c r="C19" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="5">
-        <v>19</v>
-      </c>
-      <c r="B20" s="6">
-        <v>4</v>
-      </c>
-      <c r="C20" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="5">
-        <v>20</v>
-      </c>
-      <c r="B21" s="6">
-        <v>5</v>
-      </c>
-      <c r="C21" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="5">
-        <v>21</v>
-      </c>
-      <c r="B22" s="6">
-        <v>6</v>
-      </c>
-      <c r="C22" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="5">
-        <v>22</v>
-      </c>
-      <c r="B23" s="6">
-        <v>1</v>
-      </c>
-      <c r="C23" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="5">
-        <v>23</v>
-      </c>
-      <c r="B24" s="6">
-        <v>2</v>
-      </c>
-      <c r="C24" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="5">
-        <v>24</v>
-      </c>
-      <c r="B25" s="6">
-        <v>3</v>
-      </c>
-      <c r="C25" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="5">
-        <v>25</v>
-      </c>
-      <c r="B26" s="7">
-        <v>4</v>
-      </c>
-      <c r="C26" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="5">
-        <v>26</v>
-      </c>
-      <c r="B27" s="6">
-        <v>5</v>
-      </c>
-      <c r="C27" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="5">
-        <v>27</v>
-      </c>
-      <c r="B28" s="6">
-        <v>6</v>
-      </c>
-      <c r="C28" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="5">
-        <v>28</v>
-      </c>
-      <c r="B29" s="6">
-        <v>7</v>
-      </c>
-      <c r="C29" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="5">
-        <v>29</v>
-      </c>
-      <c r="B30" s="6">
-        <v>2</v>
-      </c>
-      <c r="C30" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="5">
-        <v>30</v>
-      </c>
-      <c r="B31" s="6">
-        <v>3</v>
-      </c>
-      <c r="C31" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="5">
-        <v>31</v>
-      </c>
-      <c r="B32" s="6">
-        <v>4</v>
-      </c>
-      <c r="C32" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="5">
-        <v>32</v>
-      </c>
-      <c r="B33" s="6">
-        <v>5</v>
-      </c>
-      <c r="C33" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="5">
-        <v>33</v>
-      </c>
-      <c r="B34" s="6">
-        <v>6</v>
-      </c>
-      <c r="C34" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="5">
-        <v>34</v>
-      </c>
-      <c r="B35" s="6">
-        <v>7</v>
-      </c>
-      <c r="C35" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="5">
-        <v>35</v>
-      </c>
-      <c r="B36" s="6">
-        <v>8</v>
-      </c>
-      <c r="C36" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="5">
-        <v>36</v>
-      </c>
-      <c r="B37" s="6">
-        <v>3</v>
-      </c>
-      <c r="C37" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="5">
-        <v>37</v>
-      </c>
-      <c r="B38" s="6">
-        <v>4</v>
-      </c>
-      <c r="C38" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="5">
-        <v>38</v>
-      </c>
-      <c r="B39" s="6">
-        <v>5</v>
-      </c>
-      <c r="C39" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="5">
-        <v>39</v>
-      </c>
-      <c r="B40" s="6">
-        <v>6</v>
-      </c>
-      <c r="C40" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="5">
-        <v>40</v>
-      </c>
-      <c r="B41" s="5">
-        <v>7</v>
-      </c>
-      <c r="C41" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="5">
-        <v>41</v>
-      </c>
-      <c r="B42" s="5">
-        <v>8</v>
-      </c>
-      <c r="C42" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="5">
-        <v>42</v>
-      </c>
-      <c r="B43" s="5">
-        <v>9</v>
-      </c>
-      <c r="C43" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="5">
-        <v>43</v>
-      </c>
-      <c r="B44" s="5">
-        <v>4</v>
-      </c>
-      <c r="C44" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="5">
-        <v>44</v>
-      </c>
-      <c r="B45" s="5">
-        <v>5</v>
-      </c>
-      <c r="C45" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="5">
-        <v>45</v>
-      </c>
-      <c r="B46" s="5">
-        <v>6</v>
-      </c>
-      <c r="C46" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="5">
-        <v>46</v>
-      </c>
-      <c r="B47" s="5">
-        <v>7</v>
-      </c>
-      <c r="C47" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="5">
-        <v>47</v>
-      </c>
-      <c r="B48" s="5">
-        <v>8</v>
-      </c>
-      <c r="C48" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="5">
-        <v>48</v>
-      </c>
-      <c r="B49" s="5">
-        <v>9</v>
-      </c>
-      <c r="C49" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="5">
-        <v>49</v>
-      </c>
-      <c r="B50" s="5">
-        <v>5</v>
-      </c>
-      <c r="C50" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="5">
-        <v>50</v>
-      </c>
-      <c r="B51" s="5">
-        <v>6</v>
-      </c>
-      <c r="C51" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="5">
-        <v>51</v>
-      </c>
-      <c r="B52" s="5">
-        <v>7</v>
-      </c>
-      <c r="C52" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="5">
-        <v>52</v>
-      </c>
-      <c r="B53" s="5">
-        <v>8</v>
-      </c>
-      <c r="C53" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="5">
-        <v>53</v>
-      </c>
-      <c r="B54" s="5">
-        <v>9</v>
-      </c>
-      <c r="C54" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="5">
-        <v>54</v>
-      </c>
-      <c r="B55" s="5">
-        <v>6</v>
-      </c>
-      <c r="C55" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="5">
-        <v>55</v>
-      </c>
-      <c r="B56" s="5">
-        <v>7</v>
-      </c>
-      <c r="C56" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="5">
-        <v>56</v>
-      </c>
-      <c r="B57" s="5">
-        <v>8</v>
-      </c>
-      <c r="C57" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="5">
-        <v>57</v>
-      </c>
-      <c r="B58" s="5">
-        <v>9</v>
-      </c>
-      <c r="C58" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="5">
-        <v>58</v>
-      </c>
-      <c r="B59" s="5">
-        <v>7</v>
-      </c>
-      <c r="C59" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="5">
-        <v>59</v>
-      </c>
-      <c r="B60" s="5">
-        <v>8</v>
-      </c>
-      <c r="C60" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="5">
-        <v>60</v>
-      </c>
-      <c r="B61" s="5">
-        <v>9</v>
-      </c>
-      <c r="C61" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="5">
-        <v>61</v>
-      </c>
-      <c r="B62" s="5">
-        <v>8</v>
-      </c>
-      <c r="C62" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="5">
-        <v>62</v>
-      </c>
-      <c r="B63" s="5">
-        <v>9</v>
-      </c>
-      <c r="C63" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="5">
-        <v>63</v>
-      </c>
-      <c r="B64" s="5">
-        <v>9</v>
-      </c>
-      <c r="C64" s="5">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A5829A-45FE-ED49-88D5-6196BA917271}">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="2" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
 </file>
--- a/participants_preferences.xlsx
+++ b/participants_preferences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pascal/PycharmProjects/internal-labor-rotation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1EBEDD-AAD9-CF4A-9028-2E6950822A10}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16931F4-DA62-BF42-8C23-8349879774C0}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="18440" windowHeight="19760" activeTab="1" xr2:uid="{DCF1C8F3-97A6-AD46-8D67-C6CB5B41C1F9}"/>
   </bookViews>
@@ -698,13 +698,14 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.33203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="5" width="9.6640625" customWidth="1"/>
+    <col min="2" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
     <col min="18" max="18" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/participants_preferences.xlsx
+++ b/participants_preferences.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,8 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pascal/PycharmProjects/internal-labor-rotation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16931F4-DA62-BF42-8C23-8349879774C0}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="18440" windowHeight="19760" activeTab="1" xr2:uid="{DCF1C8F3-97A6-AD46-8D67-C6CB5B41C1F9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{DCF1C8F3-97A6-AD46-8D67-C6CB5B41C1F9}"/>
   </bookViews>
   <sheets>
     <sheet name="list_of_participants" sheetId="6" r:id="rId1"/>
@@ -121,7 +120,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -192,8 +191,20 @@
       <color rgb="FF000000"/>
       <name val="CMU Serif"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="CMU Serif Roman"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,6 +214,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -278,13 +295,20 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -698,87 +722,84 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="6.33203125" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="18" max="18" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="14" customFormat="1" ht="23" customHeight="1">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:15" s="18" customFormat="1" ht="37" customHeight="1">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="14" customFormat="1" ht="23" customHeight="1">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="21" customFormat="1" ht="23" customHeight="1">
+      <c r="A2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-    </row>
-    <row r="3" spans="1:15" s="14" customFormat="1" ht="23" customHeight="1">
-      <c r="A3" s="13" t="s">
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+    </row>
+    <row r="3" spans="1:15" s="21" customFormat="1" ht="23" customHeight="1">
+      <c r="A3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
     </row>
     <row r="4" spans="1:15" s="9" customFormat="1" ht="28">
       <c r="A4" s="10">
@@ -883,6 +904,7 @@
     <sortCondition ref="I2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -899,53 +921,53 @@
     <col min="1" max="1" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="17" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:16" s="15" customFormat="1" ht="15" customHeight="1">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="17" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:16" s="15" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
+      <c r="B2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
     </row>
     <row r="3" spans="1:16" ht="28">
       <c r="A3" s="11">

--- a/participants_preferences.xlsx
+++ b/participants_preferences.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,33 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="37740" windowHeight="19760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="37740" windowHeight="19760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Main" sheetId="2" r:id="rId1"/>
-    <sheet name="Workers" sheetId="3" r:id="rId2"/>
-    <sheet name="Managers" sheetId="4" r:id="rId3"/>
-    <sheet name="The Grid" sheetId="5" r:id="rId4"/>
-    <sheet name="Outcome" sheetId="1" r:id="rId5"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="Workers" sheetId="2" r:id="rId2"/>
+    <sheet name="Managers" sheetId="3" r:id="rId3"/>
+    <sheet name="The Grid" sheetId="4" r:id="rId4"/>
+    <sheet name="Outcome" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="21">
-  <si>
-    <t>j22</t>
-  </si>
-  <si>
-    <t>j23</t>
-  </si>
-  <si>
-    <t>j11</t>
-  </si>
-  <si>
-    <t>j12</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="24">
   <si>
     <t>Number</t>
   </si>
@@ -43,25 +31,40 @@
     <t>Participants</t>
   </si>
   <si>
+    <t>Volunteer: yes / no</t>
+  </si>
+  <si>
     <t>Managers</t>
   </si>
   <si>
-    <t>Volunteer: yes / no</t>
+    <t>w1</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>j11</t>
   </si>
   <si>
     <t>w2</t>
   </si>
   <si>
+    <t>j12</t>
+  </si>
+  <si>
     <t>w3</t>
+  </si>
+  <si>
+    <t>j21</t>
   </si>
   <si>
     <t>w4</t>
   </si>
   <si>
-    <t>no</t>
+    <t>j22</t>
   </si>
   <si>
-    <t>j21</t>
+    <t>j23</t>
   </si>
   <si>
     <t>Rank</t>
@@ -76,23 +79,29 @@
     <t>Intial Worker</t>
   </si>
   <si>
+    <t>Priority</t>
+  </si>
+  <si>
     <t>Participant</t>
   </si>
   <si>
     <t>Manager</t>
   </si>
   <si>
-    <t>Priority</t>
+    <t>GSC</t>
   </si>
   <si>
-    <t>w1</t>
+    <t>COA</t>
+  </si>
+  <si>
+    <t>ACOA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +128,12 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="CMU Serif Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -147,7 +162,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -214,11 +229,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -235,10 +265,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -252,16 +279,16 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -599,7 +626,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A619E93-D8A6-6D41-B38E-46CF853BB26F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView zoomScale="50" workbookViewId="0">
@@ -608,289 +635,290 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="39" defaultRowHeight="47" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="39" style="11"/>
-    <col min="5" max="16384" width="39" style="13"/>
+    <col min="1" max="4" width="39" style="10" customWidth="1"/>
+    <col min="5" max="5" width="39" style="13" customWidth="1"/>
+    <col min="6" max="16384" width="39" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="15" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D2" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="C3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="9">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="9">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="9">
+        <v>19</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="9">
         <v>20</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="10">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10">
-        <v>5</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="10">
-        <v>6</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="10">
-        <v>7</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="10">
-        <v>8</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="10">
-        <v>10</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="10">
-        <v>11</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="10">
-        <v>12</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-    </row>
-    <row r="14" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="10">
-        <v>13</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-    </row>
-    <row r="15" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="10">
-        <v>14</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-    </row>
-    <row r="16" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="10">
-        <v>15</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-    </row>
-    <row r="17" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="10">
-        <v>16</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-    </row>
-    <row r="18" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="10">
-        <v>17</v>
-      </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-    </row>
-    <row r="19" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="10">
-        <v>18</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-    </row>
-    <row r="20" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="10">
-        <v>19</v>
-      </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-    </row>
-    <row r="21" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="10">
-        <v>20</v>
-      </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="10">
+      <c r="A22" s="9">
         <v>21</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="10">
+      <c r="A23" s="9">
         <v>22</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="10">
+      <c r="A24" s="9">
         <v>23</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="10">
+      <c r="A25" s="9">
         <v>24</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="10">
+      <c r="A26" s="9">
         <v>25</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="10">
+      <c r="A27" s="9">
         <v>26</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="10">
+      <c r="A28" s="9">
         <v>27</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="10">
+      <c r="A29" s="9">
         <v>28</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
     </row>
     <row r="30" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="10">
+      <c r="A30" s="9">
         <v>29</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
     </row>
     <row r="31" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="10">
+      <c r="A31" s="9">
         <v>30</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -898,250 +926,250 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1798B19-BB28-3945-B6E2-B1CEB512E59F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AE7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="34" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="7" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="6" t="str">
+    <row r="1" spans="1:31" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="5" t="str">
         <f t="array" ref="B1:AE1">IF(TRANSPOSE(Main!B2:B31)=0,"",TRANSPOSE(Main!B2:B31))</f>
         <v>w1</v>
       </c>
-      <c r="C1" s="6" t="str">
+      <c r="C1" s="5" t="str">
         <v>w2</v>
       </c>
-      <c r="D1" s="6" t="str">
+      <c r="D1" s="5" t="str">
         <v>w3</v>
       </c>
-      <c r="E1" s="6" t="str">
+      <c r="E1" s="5" t="str">
         <v>w4</v>
       </c>
-      <c r="F1" s="6" t="str">
-        <v/>
-      </c>
-      <c r="G1" s="6" t="str">
-        <v/>
-      </c>
-      <c r="H1" s="6" t="str">
-        <v/>
-      </c>
-      <c r="I1" s="6" t="str">
-        <v/>
-      </c>
-      <c r="J1" s="6" t="str">
-        <v/>
-      </c>
-      <c r="K1" s="6" t="str">
-        <v/>
-      </c>
-      <c r="L1" s="6" t="str">
-        <v/>
-      </c>
-      <c r="M1" s="6" t="str">
-        <v/>
-      </c>
-      <c r="N1" s="6" t="str">
-        <v/>
-      </c>
-      <c r="O1" s="6" t="str">
-        <v/>
-      </c>
-      <c r="P1" s="6" t="str">
-        <v/>
-      </c>
-      <c r="Q1" s="6" t="str">
-        <v/>
-      </c>
-      <c r="R1" s="6" t="str">
-        <v/>
-      </c>
-      <c r="S1" s="6" t="str">
-        <v/>
-      </c>
-      <c r="T1" s="6" t="str">
-        <v/>
-      </c>
-      <c r="U1" s="6" t="str">
-        <v/>
-      </c>
-      <c r="V1" s="6" t="str">
-        <v/>
-      </c>
-      <c r="W1" s="6" t="str">
-        <v/>
-      </c>
-      <c r="X1" s="6" t="str">
-        <v/>
-      </c>
-      <c r="Y1" s="6" t="str">
-        <v/>
-      </c>
-      <c r="Z1" s="6" t="str">
-        <v/>
-      </c>
-      <c r="AA1" s="6" t="str">
-        <v/>
-      </c>
-      <c r="AB1" s="6" t="str">
-        <v/>
-      </c>
-      <c r="AC1" s="6" t="str">
-        <v/>
-      </c>
-      <c r="AD1" s="6" t="str">
-        <v/>
-      </c>
-      <c r="AE1" s="6" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="2" spans="1:31" s="9" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="F1" s="5" t="str">
+        <v/>
+      </c>
+      <c r="G1" s="5" t="str">
+        <v/>
+      </c>
+      <c r="H1" s="5" t="str">
+        <v/>
+      </c>
+      <c r="I1" s="5" t="str">
+        <v/>
+      </c>
+      <c r="J1" s="5" t="str">
+        <v/>
+      </c>
+      <c r="K1" s="5" t="str">
+        <v/>
+      </c>
+      <c r="L1" s="5" t="str">
+        <v/>
+      </c>
+      <c r="M1" s="5" t="str">
+        <v/>
+      </c>
+      <c r="N1" s="5" t="str">
+        <v/>
+      </c>
+      <c r="O1" s="5" t="str">
+        <v/>
+      </c>
+      <c r="P1" s="5" t="str">
+        <v/>
+      </c>
+      <c r="Q1" s="5" t="str">
+        <v/>
+      </c>
+      <c r="R1" s="5" t="str">
+        <v/>
+      </c>
+      <c r="S1" s="5" t="str">
+        <v/>
+      </c>
+      <c r="T1" s="5" t="str">
+        <v/>
+      </c>
+      <c r="U1" s="5" t="str">
+        <v/>
+      </c>
+      <c r="V1" s="5" t="str">
+        <v/>
+      </c>
+      <c r="W1" s="5" t="str">
+        <v/>
+      </c>
+      <c r="X1" s="5" t="str">
+        <v/>
+      </c>
+      <c r="Y1" s="5" t="str">
+        <v/>
+      </c>
+      <c r="Z1" s="5" t="str">
+        <v/>
+      </c>
+      <c r="AA1" s="5" t="str">
+        <v/>
+      </c>
+      <c r="AB1" s="5" t="str">
+        <v/>
+      </c>
+      <c r="AC1" s="5" t="str">
+        <v/>
+      </c>
+      <c r="AD1" s="5" t="str">
+        <v/>
+      </c>
+      <c r="AE1" s="5" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:31" s="8" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8"/>
-    </row>
-    <row r="3" spans="1:31" s="9" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="8" t="str">
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+    </row>
+    <row r="3" spans="1:31" s="8" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="7" t="str">
         <f t="array" ref="B3:AE3">IF(TRANSPOSE(Main!C2:C31)=0,"",TRANSPOSE(Main!C2:C31))</f>
         <v>no</v>
       </c>
-      <c r="C3" s="8" t="str">
+      <c r="C3" s="7" t="str">
         <v>no</v>
       </c>
-      <c r="D3" s="8" t="str">
+      <c r="D3" s="7" t="str">
         <v>no</v>
       </c>
-      <c r="E3" s="8" t="str">
+      <c r="E3" s="7" t="str">
         <v>no</v>
       </c>
-      <c r="F3" s="8" t="str">
-        <v/>
-      </c>
-      <c r="G3" s="8" t="str">
-        <v/>
-      </c>
-      <c r="H3" s="8" t="str">
-        <v/>
-      </c>
-      <c r="I3" s="8" t="str">
-        <v/>
-      </c>
-      <c r="J3" s="8" t="str">
-        <v/>
-      </c>
-      <c r="K3" s="8" t="str">
-        <v/>
-      </c>
-      <c r="L3" s="8" t="str">
-        <v/>
-      </c>
-      <c r="M3" s="8" t="str">
-        <v/>
-      </c>
-      <c r="N3" s="8" t="str">
-        <v/>
-      </c>
-      <c r="O3" s="8" t="str">
-        <v/>
-      </c>
-      <c r="P3" s="8" t="str">
-        <v/>
-      </c>
-      <c r="Q3" s="8" t="str">
-        <v/>
-      </c>
-      <c r="R3" s="8" t="str">
-        <v/>
-      </c>
-      <c r="S3" s="8" t="str">
-        <v/>
-      </c>
-      <c r="T3" s="8" t="str">
-        <v/>
-      </c>
-      <c r="U3" s="8" t="str">
-        <v/>
-      </c>
-      <c r="V3" s="8" t="str">
-        <v/>
-      </c>
-      <c r="W3" s="8" t="str">
-        <v/>
-      </c>
-      <c r="X3" s="8" t="str">
-        <v/>
-      </c>
-      <c r="Y3" s="8" t="str">
-        <v/>
-      </c>
-      <c r="Z3" s="8" t="str">
-        <v/>
-      </c>
-      <c r="AA3" s="8" t="str">
-        <v/>
-      </c>
-      <c r="AB3" s="8" t="str">
-        <v/>
-      </c>
-      <c r="AC3" s="8" t="str">
-        <v/>
-      </c>
-      <c r="AD3" s="8" t="str">
-        <v/>
-      </c>
-      <c r="AE3" s="8" t="str">
+      <c r="F3" s="7" t="str">
+        <v/>
+      </c>
+      <c r="G3" s="7" t="str">
+        <v/>
+      </c>
+      <c r="H3" s="7" t="str">
+        <v/>
+      </c>
+      <c r="I3" s="7" t="str">
+        <v/>
+      </c>
+      <c r="J3" s="7" t="str">
+        <v/>
+      </c>
+      <c r="K3" s="7" t="str">
+        <v/>
+      </c>
+      <c r="L3" s="7" t="str">
+        <v/>
+      </c>
+      <c r="M3" s="7" t="str">
+        <v/>
+      </c>
+      <c r="N3" s="7" t="str">
+        <v/>
+      </c>
+      <c r="O3" s="7" t="str">
+        <v/>
+      </c>
+      <c r="P3" s="7" t="str">
+        <v/>
+      </c>
+      <c r="Q3" s="7" t="str">
+        <v/>
+      </c>
+      <c r="R3" s="7" t="str">
+        <v/>
+      </c>
+      <c r="S3" s="7" t="str">
+        <v/>
+      </c>
+      <c r="T3" s="7" t="str">
+        <v/>
+      </c>
+      <c r="U3" s="7" t="str">
+        <v/>
+      </c>
+      <c r="V3" s="7" t="str">
+        <v/>
+      </c>
+      <c r="W3" s="7" t="str">
+        <v/>
+      </c>
+      <c r="X3" s="7" t="str">
+        <v/>
+      </c>
+      <c r="Y3" s="7" t="str">
+        <v/>
+      </c>
+      <c r="Z3" s="7" t="str">
+        <v/>
+      </c>
+      <c r="AA3" s="7" t="str">
+        <v/>
+      </c>
+      <c r="AB3" s="7" t="str">
+        <v/>
+      </c>
+      <c r="AC3" s="7" t="str">
+        <v/>
+      </c>
+      <c r="AD3" s="7" t="str">
+        <v/>
+      </c>
+      <c r="AE3" s="7" t="str">
         <v/>
       </c>
     </row>
@@ -1150,16 +1178,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -1193,16 +1221,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -1236,16 +1264,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -1281,7 +1309,7 @@
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -1317,7 +1345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A761E8EF-CB7A-B74B-870F-D6D6A2149428}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AE6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1326,12 +1354,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.5" defaultRowHeight="38" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="1" max="1" width="24.5" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1" s="5" t="str">
         <f t="array" ref="B1:AE1">IF(TRANSPOSE(Main!D2:D31)=0,"",TRANSPOSE(Main!D2:D31))</f>
@@ -1425,127 +1453,127 @@
         <v/>
       </c>
     </row>
-    <row r="2" spans="1:31" s="9" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="8" t="str">
+    <row r="2" spans="1:31" s="8" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="7" t="str">
         <f>_xlfn.IFNA(INDEX(Workers!$B$1:$AE$1,1,MATCH(B1,Workers!$B$2:$AE$2,0)),"")</f>
         <v>w1</v>
       </c>
-      <c r="C2" s="8" t="str">
+      <c r="C2" s="7" t="str">
         <f>_xlfn.IFNA(INDEX(Workers!$B$1:$AE$1,1,MATCH(C1,Workers!$B$2:$AE$2,0)),"")</f>
         <v>w2</v>
       </c>
-      <c r="D2" s="8" t="str">
+      <c r="D2" s="7" t="str">
         <f>_xlfn.IFNA(INDEX(Workers!$B$1:$AE$1,1,MATCH(D1,Workers!$B$2:$AE$2,0)),"")</f>
         <v>w3</v>
       </c>
-      <c r="E2" s="8" t="str">
+      <c r="E2" s="7" t="str">
         <f>_xlfn.IFNA(INDEX(Workers!$B$1:$AE$1,1,MATCH(E1,Workers!$B$2:$AE$2,0)),"")</f>
         <v>w4</v>
       </c>
-      <c r="F2" s="8" t="str">
+      <c r="F2" s="7" t="str">
         <f>_xlfn.IFNA(INDEX(Workers!$B$1:$AE$1,1,MATCH(F1,Workers!$B$2:$AE$2,0)),"")</f>
         <v/>
       </c>
-      <c r="G2" s="8" t="str">
+      <c r="G2" s="7" t="str">
         <f>_xlfn.IFNA(INDEX(Workers!$B$1:$AE$1,1,MATCH(G1,Workers!$B$2:$AE$2,0)),"")</f>
         <v/>
       </c>
-      <c r="H2" s="8" t="str">
+      <c r="H2" s="7" t="str">
         <f>_xlfn.IFNA(INDEX(Workers!$B$1:$AE$1,1,MATCH(H1,Workers!$B$2:$AE$2,0)),"")</f>
         <v/>
       </c>
-      <c r="I2" s="8" t="str">
+      <c r="I2" s="7" t="str">
         <f>_xlfn.IFNA(INDEX(Workers!$B$1:$AE$1,1,MATCH(I1,Workers!$B$2:$AE$2,0)),"")</f>
         <v/>
       </c>
-      <c r="J2" s="8" t="str">
+      <c r="J2" s="7" t="str">
         <f>_xlfn.IFNA(INDEX(Workers!$B$1:$AE$1,1,MATCH(J1,Workers!$B$2:$AE$2,0)),"")</f>
         <v/>
       </c>
-      <c r="K2" s="8" t="str">
+      <c r="K2" s="7" t="str">
         <f>_xlfn.IFNA(INDEX(Workers!$B$1:$AE$1,1,MATCH(K1,Workers!$B$2:$AE$2,0)),"")</f>
         <v/>
       </c>
-      <c r="L2" s="8" t="str">
+      <c r="L2" s="7" t="str">
         <f>_xlfn.IFNA(INDEX(Workers!$B$1:$AE$1,1,MATCH(L1,Workers!$B$2:$AE$2,0)),"")</f>
         <v/>
       </c>
-      <c r="M2" s="8" t="str">
+      <c r="M2" s="7" t="str">
         <f>_xlfn.IFNA(INDEX(Workers!$B$1:$AE$1,1,MATCH(M1,Workers!$B$2:$AE$2,0)),"")</f>
         <v/>
       </c>
-      <c r="N2" s="8" t="str">
+      <c r="N2" s="7" t="str">
         <f>_xlfn.IFNA(INDEX(Workers!$B$1:$AE$1,1,MATCH(N1,Workers!$B$2:$AE$2,0)),"")</f>
         <v/>
       </c>
-      <c r="O2" s="8" t="str">
+      <c r="O2" s="7" t="str">
         <f>_xlfn.IFNA(INDEX(Workers!$B$1:$AE$1,1,MATCH(O1,Workers!$B$2:$AE$2,0)),"")</f>
         <v/>
       </c>
-      <c r="P2" s="8" t="str">
+      <c r="P2" s="7" t="str">
         <f>_xlfn.IFNA(INDEX(Workers!$B$1:$AE$1,1,MATCH(P1,Workers!$B$2:$AE$2,0)),"")</f>
         <v/>
       </c>
-      <c r="Q2" s="8" t="str">
+      <c r="Q2" s="7" t="str">
         <f>_xlfn.IFNA(INDEX(Workers!$B$1:$AE$1,1,MATCH(Q1,Workers!$B$2:$AE$2,0)),"")</f>
         <v/>
       </c>
-      <c r="R2" s="8" t="str">
+      <c r="R2" s="7" t="str">
         <f>_xlfn.IFNA(INDEX(Workers!$B$1:$AE$1,1,MATCH(R1,Workers!$B$2:$AE$2,0)),"")</f>
         <v/>
       </c>
-      <c r="S2" s="8" t="str">
+      <c r="S2" s="7" t="str">
         <f>_xlfn.IFNA(INDEX(Workers!$B$1:$AE$1,1,MATCH(S1,Workers!$B$2:$AE$2,0)),"")</f>
         <v/>
       </c>
-      <c r="T2" s="8" t="str">
+      <c r="T2" s="7" t="str">
         <f>_xlfn.IFNA(INDEX(Workers!$B$1:$AE$1,1,MATCH(T1,Workers!$B$2:$AE$2,0)),"")</f>
         <v/>
       </c>
-      <c r="U2" s="8" t="str">
+      <c r="U2" s="7" t="str">
         <f>_xlfn.IFNA(INDEX(Workers!$B$1:$AE$1,1,MATCH(U1,Workers!$B$2:$AE$2,0)),"")</f>
         <v/>
       </c>
-      <c r="V2" s="8" t="str">
+      <c r="V2" s="7" t="str">
         <f>_xlfn.IFNA(INDEX(Workers!$B$1:$AE$1,1,MATCH(V1,Workers!$B$2:$AE$2,0)),"")</f>
         <v/>
       </c>
-      <c r="W2" s="8" t="str">
+      <c r="W2" s="7" t="str">
         <f>_xlfn.IFNA(INDEX(Workers!$B$1:$AE$1,1,MATCH(W1,Workers!$B$2:$AE$2,0)),"")</f>
         <v/>
       </c>
-      <c r="X2" s="8" t="str">
+      <c r="X2" s="7" t="str">
         <f>_xlfn.IFNA(INDEX(Workers!$B$1:$AE$1,1,MATCH(X1,Workers!$B$2:$AE$2,0)),"")</f>
         <v/>
       </c>
-      <c r="Y2" s="8" t="str">
+      <c r="Y2" s="7" t="str">
         <f>_xlfn.IFNA(INDEX(Workers!$B$1:$AE$1,1,MATCH(Y1,Workers!$B$2:$AE$2,0)),"")</f>
         <v/>
       </c>
-      <c r="Z2" s="8" t="str">
+      <c r="Z2" s="7" t="str">
         <f>_xlfn.IFNA(INDEX(Workers!$B$1:$AE$1,1,MATCH(Z1,Workers!$B$2:$AE$2,0)),"")</f>
         <v/>
       </c>
-      <c r="AA2" s="8" t="str">
+      <c r="AA2" s="7" t="str">
         <f>_xlfn.IFNA(INDEX(Workers!$B$1:$AE$1,1,MATCH(AA1,Workers!$B$2:$AE$2,0)),"")</f>
         <v/>
       </c>
-      <c r="AB2" s="8" t="str">
+      <c r="AB2" s="7" t="str">
         <f>_xlfn.IFNA(INDEX(Workers!$B$1:$AE$1,1,MATCH(AB1,Workers!$B$2:$AE$2,0)),"")</f>
         <v/>
       </c>
-      <c r="AC2" s="8" t="str">
+      <c r="AC2" s="7" t="str">
         <f>_xlfn.IFNA(INDEX(Workers!$B$1:$AE$1,1,MATCH(AC1,Workers!$B$2:$AE$2,0)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="8" t="str">
+      <c r="AD2" s="7" t="str">
         <f>_xlfn.IFNA(INDEX(Workers!$B$1:$AE$1,1,MATCH(AD1,Workers!$B$2:$AE$2,0)),"")</f>
         <v/>
       </c>
-      <c r="AE2" s="8" t="str">
+      <c r="AE2" s="7" t="str">
         <f>_xlfn.IFNA(INDEX(Workers!$B$1:$AE$1,1,MATCH(AE1,Workers!$B$2:$AE$2,0)),"")</f>
         <v/>
       </c>
@@ -1555,19 +1583,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -1605,10 +1633,10 @@
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -1641,7 +1669,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -1649,7 +1677,7 @@
         <v>9</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -1720,27 +1748,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8BBA6C8-0ACA-E04C-8C4D-01C0FE22F423}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+    <sheetView zoomScale="75" workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.6640625" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="16384" width="14.6640625" style="16"/>
+    <col min="1" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="14" customWidth="1"/>
+    <col min="5" max="16384" width="14.6640625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.2">
@@ -2442,15 +2472,69 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="V28" sqref="V28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>